--- a/Software/logger.xlsx
+++ b/Software/logger.xlsx
@@ -416,7 +416,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -448,7 +448,7 @@
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
-        <v>45432.98070527789</v>
+        <v>45432.98070527778</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
@@ -459,6 +459,22 @@
         <v>0</v>
       </c>
       <c r="D2" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n">
+        <v>45440.75486371375</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>checking if frozen_&lt;function OB1_Get_Remote_Data at 0x0000014E68C01C60&gt;</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>0</v>
+      </c>
+      <c r="D3" t="n">
         <v>0</v>
       </c>
     </row>

--- a/Software/logger.xlsx
+++ b/Software/logger.xlsx
@@ -416,7 +416,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -464,7 +464,7 @@
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
-        <v>45440.75486371375</v>
+        <v>45440.75486371528</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
@@ -475,6 +475,22 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>45559.43622392616</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>checking if frozen_&lt;function OB1_Get_Remote_Data at 0x000002175CA15BD0&gt;</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>0</v>
+      </c>
+      <c r="D4" t="n">
         <v>0</v>
       </c>
     </row>

--- a/Software/logger.xlsx
+++ b/Software/logger.xlsx
@@ -416,7 +416,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -480,7 +480,7 @@
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
-        <v>45559.43622392616</v>
+        <v>45559.43622392361</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
@@ -491,6 +491,102 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>45582.59427265047</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>checking if frozen_&lt;function OB1_Get_Remote_Data at 0x0000020E74C55BD0&gt;</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>0</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>45582.99832041666</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>checking if frozen_&lt;function OB1_Get_Remote_Data at 0x000001E74A9E5BD0&gt;</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>0</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>45583.66676502315</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>checking if frozen_&lt;function OB1_Get_Remote_Data at 0x0000026055EC1BD0&gt;</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>0</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>45587.21101767361</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>checking if frozen_&lt;function OB1_Get_Remote_Data at 0x0000020DC60F5BD0&gt;</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>0</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>45587.38394120371</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>checking if frozen_&lt;function OB1_Get_Remote_Data at 0x0000029572D11BD0&gt;</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
+        <v>0</v>
+      </c>
+      <c r="D9" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>45587.39582587457</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>checking if frozen_&lt;function OB1_Get_Remote_Data at 0x0000014697B21BD0&gt;</t>
+        </is>
+      </c>
+      <c r="C10" t="n">
+        <v>0</v>
+      </c>
+      <c r="D10" t="n">
         <v>0</v>
       </c>
     </row>

--- a/Software/logger.xlsx
+++ b/Software/logger.xlsx
@@ -416,7 +416,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D10"/>
+  <dimension ref="A1:D11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -576,7 +576,7 @@
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
-        <v>45587.39582587457</v>
+        <v>45587.39582587963</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
@@ -587,6 +587,22 @@
         <v>0</v>
       </c>
       <c r="D10" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>45607.8485318993</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>checking if frozen_&lt;function OB1_Get_Remote_Data at 0x000001283A115C60&gt;</t>
+        </is>
+      </c>
+      <c r="C11" t="n">
+        <v>0</v>
+      </c>
+      <c r="D11" t="n">
         <v>0</v>
       </c>
     </row>
